--- a/HarneyCounty.Web/Content/ExcelTemplates/DailyDetailTemplate.xlsx
+++ b/HarneyCounty.Web/Content/ExcelTemplates/DailyDetailTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tax Year</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Discount</t>
+  </si>
+  <si>
+    <t>State %</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,16 +412,16 @@
   <cols>
     <col min="1" max="1" width="17.21875" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="3" customWidth="1"/>
-    <col min="4" max="5" width="15.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="3" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21" style="3" customWidth="1"/>
+    <col min="3" max="4" width="21.5546875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="15.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="3" customWidth="1"/>
+    <col min="9" max="10" width="15.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,31 +432,34 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4">
+      <c r="H1" s="4">
         <v>0.12</v>
       </c>
-      <c r="H1" s="4">
+      <c r="I1" s="4">
         <v>0.16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
